--- a/2024-12-10_wages/sgu.xlsx
+++ b/2024-12-10_wages/sgu.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/theveshtheva/git-thevesh/charts/2024-12-10_wages/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C270A59-F281-D540-B4FB-37A338845EFA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E819F8-4F7F-5E47-84E6-79B69AAF4563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4440" yWindow="1320" windowWidth="25800" windowHeight="16940" xr2:uid="{1519F8DC-062B-D74D-8B5A-39565538626B}"/>
+    <workbookView xWindow="4680" yWindow="1320" windowWidth="25800" windowHeight="16940" activeTab="1" xr2:uid="{1519F8DC-062B-D74D-8B5A-39565538626B}"/>
   </bookViews>
   <sheets>
     <sheet name="age" sheetId="2" r:id="rId1"/>
+    <sheet name="ts" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>15-19</t>
   </si>
@@ -72,6 +73,15 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>median_wage</t>
+  </si>
+  <si>
+    <t>cpi</t>
   </si>
 </sst>
 </file>
@@ -452,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9357026B-B355-8D47-9A82-DA9ABED60776}">
   <dimension ref="A1:O13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1042,4 +1052,184 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E56576-57A0-5C4B-8A7A-A397D0115E67}">
+  <dimension ref="A1:C15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C2" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1500</v>
+      </c>
+      <c r="C3" s="1">
+        <v>103.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1566</v>
+      </c>
+      <c r="C4" s="1">
+        <v>104.9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1700</v>
+      </c>
+      <c r="C5" s="1">
+        <v>107.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B6" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C6" s="1">
+        <v>110.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1942</v>
+      </c>
+      <c r="C7" s="1">
+        <v>112.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>115.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2160</v>
+      </c>
+      <c r="C9" s="1">
+        <v>119.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2018</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2308</v>
+      </c>
+      <c r="C10" s="1">
+        <v>120.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2442</v>
+      </c>
+      <c r="C11" s="1">
+        <v>121.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B12" s="1">
+        <v>2076</v>
+      </c>
+      <c r="C12" s="1">
+        <v>120.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2256</v>
+      </c>
+      <c r="C13" s="1">
+        <v>123.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B14" s="1">
+        <v>2429</v>
+      </c>
+      <c r="C14" s="1">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B15" s="1">
+        <v>2602</v>
+      </c>
+      <c r="C15" s="1">
+        <v>130.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>